--- a/biology/Zoologie/Hermatobates/Hermatobates.xlsx
+++ b/biology/Zoologie/Hermatobates/Hermatobates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermatobatidae
 Hermatobates est un genre d'insectes semi-aquatiques de l'ordre des Hémiptères et du sous-ordre des Hétéroptères (punaises). Il constitue à lui seul la famille des Hermatobatidae, avec une douzaine d'espèces connues, associées aux récifs coralliens.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Insectes semi-aquatiques, à antennes développées, aptères, au pronotum très court, laissant visibles le mésonotum et le métanotum. La tête est plus courte que large et verticale, ce qui les distingue des Mesoveliidae (chez qui elle est plus longue que large et horizontale). Les tarses ont trois articles (ce qui les distingue des Gerridae, qui en ont deux). Les griffes des tarses antérieurs sont subapicales, alors que celles des tarses médians et postérieurs sont apicales[1]. Les pattes antérieures sont fortes, et les pattes médianes et postérieures plus fines. L'abdomen est très court.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Insectes semi-aquatiques, à antennes développées, aptères, au pronotum très court, laissant visibles le mésonotum et le métanotum. La tête est plus courte que large et verticale, ce qui les distingue des Mesoveliidae (chez qui elle est plus longue que large et horizontale). Les tarses ont trois articles (ce qui les distingue des Gerridae, qui en ont deux). Les griffes des tarses antérieurs sont subapicales, alors que celles des tarses médians et postérieurs sont apicales. Les pattes antérieures sont fortes, et les pattes médianes et postérieures plus fines. L'abdomen est très court.
 La structure des pattes antérieures des mâles ont longtemps été utilisées comme critère de distinction des espèces, mais il a ensuite été montré qu'elles pouvaient présenter une certaine variabilité.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces espèces vivent sur les récifs coralliens, obligatoirement associées à l'eau de mer, et appartiennent au neuston. Elles visitent les zones découvertes à marée basse, et à marée haute, se retirent dans des cavités de supports immergés[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces espèces vivent sur les récifs coralliens, obligatoirement associées à l'eau de mer, et appartiennent au neuston. Elles visitent les zones découvertes à marée basse, et à marée haute, se retirent dans des cavités de supports immergés.
 Les espèces du genre Hermatobates sont des prédateurs carnivores.
 </t>
         </is>
@@ -576,11 +592,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier Hermatobates, Hermatobates haddonii, décrit en 1892 par le naturaliste britannique George Herbert Carpenter (d)[3] (1865-1939), a d'abord été classé dans les Gerridae.
-En 1901, Henri Coutière (d) et J. Martin reprennent cette classification en lui établissant une sous-famille propre, les Hermatobatinae[4]. Dès 1960, l'appartenance aux Gerridae est contestée, et en 1965, l'entomologiste français Raymond Alfred Poisson (d) (1895-1973) en fait une famille à part entière qui est reconnue depuis par la plupart des entomologistes[5].
-La position phylogénétique de ce genre et de cette famille n'est pas encore claire. Ils ont été placés soit à la base des Gerroidea, soit dans un clade commun aux Hydrometridae ainsi qu'aux Hebridae[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier Hermatobates, Hermatobates haddonii, décrit en 1892 par le naturaliste britannique George Herbert Carpenter (d) (1865-1939), a d'abord été classé dans les Gerridae.
+En 1901, Henri Coutière (d) et J. Martin reprennent cette classification en lui établissant une sous-famille propre, les Hermatobatinae. Dès 1960, l'appartenance aux Gerridae est contestée, et en 1965, l'entomologiste français Raymond Alfred Poisson (d) (1895-1973) en fait une famille à part entière qui est reconnue depuis par la plupart des entomologistes.
+La position phylogénétique de ce genre et de cette famille n'est pas encore claire. Ils ont été placés soit à la base des Gerroidea, soit dans un clade commun aux Hydrometridae ainsi qu'aux Hebridae.
 </t>
         </is>
       </c>
@@ -609,20 +627,22 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les espèces connues sont les suivantes, mais la systématique est encore instable[2],[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les espèces connues sont les suivantes, mais la systématique est encore instable, :
 Hermatobates armatus Andersen &amp; Weir, 2000 (Îles Chesterfield)
 Hermatobates bredini Herring, 1965 (Amérique centrale, Caraïbes)
 Hermatobates djiboutensis Coutière &amp; Martin, 1901 (Ouest de l'Océan Indien)
 Hermatobates haddoni Carpenter, 1892, espèce-type du genre (Australie)
-Hermatobates hawaiiensis China, 1957[8] (Hawaï)
+Hermatobates hawaiiensis China, 1957 (Hawaï)
 Hermatobates kula J. Polhemus &amp; D. Polhemus, 2006 (endémique des archipels de l'Est de la Nouvelle-Guinée)
-Hermatobates lingyangjiaoensis Luo, Chen, Wang &amp; Xie, 2019[9] (Chine)
+Hermatobates lingyangjiaoensis Luo, Chen, Wang &amp; Xie, 2019 (Chine)
 Hermatobates marchei Coutière &amp; Martin, 1901 (des Philippines jusqu'au Nord de la Nouvelle-Guinée)
 Hermatobates palmyra J. Polhemus &amp; D. Polhemus, 2012 (Est du Pacifique tropical)
 Hermatobates schuhi J. Polhemus &amp; D. Polhemus, 2012 (Ryukyu)
-Hermatobates singaporensis Cheng, 1976[10] (Singapour)
+Hermatobates singaporensis Cheng, 1976 (Singapour)
 Hermatobates tiarae Herring, 1965 (Est du Pacifique tropical)
 Hermatobates weddi China, 1957 (de la côté Ouest de l'Australie jusqu'aux îles Fidji, Tonga et Samoa)</t>
         </is>
@@ -652,7 +672,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Famille des Hermatobatidae :
 R. A. Poisson, « Catalogue des Insectes Hétéroptères Gerridae Leach, 1807, africano-malagaches », Bulletin de l'Institut français d'Afrique noire, Dakar, a, vol. 27,‎ 1965, p. 1466-1503 (ISSN 0399-080X).
